--- a/Posible Remonte.xlsx
+++ b/Posible Remonte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{52ECB2EA-C7CA-4B42-A141-B2DA38DF0021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{170A1934-C4E9-4667-8D76-74445F97911A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1"/>
   </bookViews>
@@ -18,13 +18,14 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="62" r:id="rId3"/>
+    <pivotCache cacheId="71" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t xml:space="preserve">Resultados Elecciones Generales Presidenciales 2021 - </t>
   </si>
@@ -173,19 +174,10 @@
     <t>Max Swing</t>
   </si>
   <si>
-    <t>Votos + Max Swing</t>
-  </si>
-  <si>
-    <t>% Procesado</t>
-  </si>
-  <si>
     <t>Lift vs Ganador</t>
   </si>
   <si>
     <t>Votos</t>
-  </si>
-  <si>
-    <t>Porcentaje Válidos + Max Swing</t>
   </si>
   <si>
     <t>Lift vs OP Ganador</t>
@@ -206,25 +198,74 @@
     <t>Posible Remonte</t>
   </si>
   <si>
-    <t>Actas Procesadas 82.843%</t>
+    <t>EDITAR LO QUE ESTÁ EN AMARILLO</t>
   </si>
   <si>
-    <t>ACTAS POR PROCESAR(17.157)%</t>
+    <t>Porcentaje Swing</t>
   </si>
   <si>
-    <t>EDITAR LO QUE ESTÁ EN AMARILLO</t>
+    <t>2do puesto</t>
+  </si>
+  <si>
+    <t>Lift vs 2do puesto</t>
+  </si>
+  <si>
+    <t>Lift vs OP 2do puesto</t>
+  </si>
+  <si>
+    <t>Dif vs 2do puesto</t>
+  </si>
+  <si>
+    <t>[ALT]: Grafico General</t>
+  </si>
+  <si>
+    <t>[ALT]: Grafico 2do Puesto</t>
+  </si>
+  <si>
+    <t>Votos + Max Swing Ganador</t>
+  </si>
+  <si>
+    <t>Votos + Max Swing 2do puesto</t>
+  </si>
+  <si>
+    <t>Porcentaje Válidos + Max Swing Ganador</t>
+  </si>
+  <si>
+    <t>Porcentaje Válidos + Max Swing 2do puesto</t>
+  </si>
+  <si>
+    <t>votod</t>
+  </si>
+  <si>
+    <t>lift vs op ga</t>
+  </si>
+  <si>
+    <t>posible remonte</t>
+  </si>
+  <si>
+    <t>dif vs 2do pto</t>
+  </si>
+  <si>
+    <t>Actas Procesadas 90.505%</t>
+  </si>
+  <si>
+    <t>ACTAS POR PROCESAR(9.495)%</t>
+  </si>
+  <si>
+    <t>% Contabilizado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,7 +402,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -722,9 +790,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -736,7 +805,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -784,7 +870,25 @@
     <cellStyle name="Título 3" xfId="6" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -872,7 +976,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1050" b="1"/>
-              <a:t>Votación y Posible Remonte  -</a:t>
+              <a:t>Votación y Posible Remonte </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:t>al</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1050" b="1" baseline="0"/>
@@ -880,7 +993,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1050" b="1"/>
-              <a:t>82.8%</a:t>
+              <a:t>87%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -889,8 +1002,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.7607740208944473E-2"/>
-          <c:y val="8.7336244541484712E-3"/>
+          <c:x val="1.760774020894447E-2"/>
+          <c:y val="5.822416302765648E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1036,7 +1149,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="7030A0"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1080,8 +1196,6 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1096,35 +1210,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1221,6 +1306,1141 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="6.4517214759919714E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.7706654315269319E-2"/>
+              <c:y val="2.9114373803711215E-3"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="6.1992177448407182E-2"/>
+              <c:y val="2.6685766444758063E-17"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.7471360197622255E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="6.8624877772631362E-2"/>
+              <c:y val="5.3371532889516127E-17"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.488919767382018E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.2746641963872158E-2"/>
+              <c:y val="5.3371532889516127E-17"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.6687561113684322E-2"/>
+              <c:y val="5.3371532889516127E-17"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.0616849364417681E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.4188770521331798E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="7.0077402089444699E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.4819823992589166E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.2385157737635731E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.8358602233544337E-2"/>
+              <c:y val="2.2922898840460321E-7"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.4219443157840566E-2"/>
+              <c:y val="1.0674306577903225E-16"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.6840203798054656E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.6753949873912822E-2"/>
+              <c:y val="-"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1288,10 +2508,10 @@
                   <c:v>PARTIDO MORADO</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>PODEMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>VICTORIA NACIONAL</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ALIANZA PARA EL PROGRESO</c:v>
@@ -1327,55 +2547,55 @@
                   <c:v>3.4599999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8600000000000001E-3</c:v>
+                  <c:v>3.8300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3099999999999996E-3</c:v>
+                  <c:v>4.4099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0200000000000002E-3</c:v>
+                  <c:v>6.0899999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5599999999999999E-3</c:v>
+                  <c:v>6.7200000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4330000000000001E-2</c:v>
+                  <c:v>1.4830000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6390000000000002E-2</c:v>
+                  <c:v>1.6459999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0899999999999998E-2</c:v>
+                  <c:v>2.027E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3429999999999999E-2</c:v>
+                  <c:v>2.2850000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6550000000000003E-2</c:v>
+                  <c:v>5.6449999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6860000000000001E-2</c:v>
+                  <c:v>5.6459999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9839999999999997E-2</c:v>
+                  <c:v>5.9920000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8530000000000003E-2</c:v>
+                  <c:v>7.8129999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0249999999999997E-2</c:v>
+                  <c:v>9.1150000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12099</c:v>
+                  <c:v>0.11863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12205000000000001</c:v>
+                  <c:v>0.11903999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13228999999999999</c:v>
+                  <c:v>0.13250999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18339</c:v>
+                  <c:v>0.1888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,351 +2603,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-803C-44E8-A0EA-D59DA1BBF052}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gráfica!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Dif vs Ganador</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gráfica!$A$4:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>DEMOCRACIA DIRECTA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PERU PATRIA SEGURA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>UNION POR EL PERU</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PARTIDO MORADO</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PODEMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>VICTORIA NACIONAL</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>JUNTOS POR EL PERU</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ACCION POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>RENOVACION POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>FUERZA POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gráfica!$E$4:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.17993000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17953</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17907999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17737</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17682999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15995999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12653</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12354999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.10485999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.3140000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2399999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1339999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1100000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-803C-44E8-A0EA-D59DA1BBF052}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="30"/>
-        <c:overlap val="100"/>
-        <c:axId val="1272867311"/>
-        <c:axId val="1272847759"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Gráfica!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Posible Remonte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Gráfica!$A$4:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>DEMOCRACIA DIRECTA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PERU PATRIA SEGURA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>UNION POR EL PERU</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PARTIDO MORADO</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PODEMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>VICTORIA NACIONAL</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>JUNTOS POR EL PERU</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ACCION POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>RENOVACION POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>FUERZA POPULAR</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Gráfica!$B$4:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.17443618105700734</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17476897589419971</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17514644300747109</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17655688840708811</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17700851422256994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18344145817391311</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1851548033967001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18888561942911691</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19098480781694011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21841773930635258</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2186793036545531</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.22114206716735479</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23662530100159193</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24634036338308868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27180560368758744</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27268120753792907</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2811641050362339</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.3235004841426018</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-803C-44E8-A0EA-D59DA1BBF052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1754,6 +2629,380 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4819823992589166E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.488919767382018E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2385157737635731E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.7471360197622255E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4517214759919714E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6687561113684322E-2"/>
+                  <c:y val="5.3371532889516127E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.4188770521331798E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2746641963872158E-2"/>
+                  <c:y val="5.3371532889516127E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.0616849364417681E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.7706654315269319E-2"/>
+                  <c:y val="2.9114373803711215E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8624877772631362E-2"/>
+                  <c:y val="5.3371532889516127E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8358602233544337E-2"/>
+                  <c:y val="2.2922898840460321E-7"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0077402089444699E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4219443157840566E-2"/>
+                  <c:y val="1.0674306577903225E-16"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1992177448407182E-2"/>
+                  <c:y val="2.6685766444758063E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6840203798054656E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6753949873912822E-2"/>
+                  <c:y val="-"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-803C-44E8-A0EA-D59DA1BBF052}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1770,7 +3019,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="7030A0"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1841,10 +3093,10 @@
                   <c:v>PARTIDO MORADO</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>PODEMOS PERU</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>VICTORIA NACIONAL</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>ALIANZA PARA EL PROGRESO</c:v>
@@ -1877,58 +3129,58 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>-8.9538189429926585E-3</c:v>
+                  <c:v>-7.2595655835164336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.6210241058002901E-3</c:v>
+                  <c:v>-7.2450792548998305E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.2435569925289054E-3</c:v>
+                  <c:v>-7.2220362661675003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.8331115929118891E-3</c:v>
+                  <c:v>-7.1563281460295253E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.3814857774300571E-3</c:v>
+                  <c:v>-7.1317459280695786E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.1458173913110361E-5</c:v>
+                  <c:v>-6.86981043695261E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7648033967000987E-3</c:v>
+                  <c:v>-6.7502019083271497E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4956194291169158E-3</c:v>
+                  <c:v>-6.6010451422092803E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5948078169401079E-3</c:v>
+                  <c:v>-6.4999044500481801E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5027739306352584E-2</c:v>
+                  <c:v>-5.1841028287608344E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.52893036545531E-2</c:v>
+                  <c:v>-5.1834483533412176E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7752067167354797E-2</c:v>
+                  <c:v>-5.0480689008020337E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3235301001591934E-2</c:v>
+                  <c:v>-4.3347725028475351E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2950363383088681E-2</c:v>
+                  <c:v>-3.8250088704573762E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8415603687587441E-2</c:v>
+                  <c:v>-2.7485573940643965E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9291207537929074E-2</c:v>
+                  <c:v>-2.7325469861141496E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7774105036233905E-2</c:v>
+                  <c:v>-2.2049822283061807E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1401104841426018</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1936,6 +3188,169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-803C-44E8-A0EA-D59DA1BBF052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dif vs Ganador</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$A$4:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$E$4:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.18534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18270999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18207999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17396999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17233999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13234000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12887999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11067</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.7649999999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0169999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9760000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6290000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-803C-44E8-A0EA-D59DA1BBF052}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1949,8 +3364,184 @@
         </c:dLbls>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="1350337679"/>
-        <c:axId val="1350330607"/>
+        <c:axId val="1272867311"/>
+        <c:axId val="1272847759"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Posible Remonte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$A$4:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$B$4:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.5180569265343353E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5325432551509391E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5555862438832686E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6212943640212443E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6458765819811903E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9078120730981589E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0274206017236185E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1765773678414879E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2777180600025881E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5935196812899345E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5941741567095513E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7295536092487352E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4428500072032338E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9526136395933927E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0290651159863724E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0450755239366192E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5726402817445882E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10777622510050769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-803C-44E8-A0EA-D59DA1BBF052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="1329408431"/>
+        <c:axId val="1329410927"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="1272867311"/>
@@ -2048,7 +3639,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1350330607"/>
+        <c:axId val="1329410927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2087,12 +3678,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350337679"/>
+        <c:crossAx val="1329408431"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1350337679"/>
+        <c:axId val="1329408431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2102,7 +3693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1350330607"/>
+        <c:crossAx val="1329410927"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2119,7 +3710,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
-        <c:idx val="2"/>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -2137,10 +3732,6 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
         <c:manualLayout>
@@ -2207,6 +3798,1712 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Posible Remonte.xlsx]Gráfica!TablaDinámica4</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:t>Votación y Posible Remonte </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:t>vs Segundo Puesto  al</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" baseline="0"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1"/>
+              <a:t>87%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3540489642184557E-2"/>
+          <c:y val="2.9101118649476993E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje Votos Válidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$G$4:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$I$4:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.82E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4400000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.13E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6459999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0209999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6809999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9740000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8070000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1289999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11842999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13259000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5DD7-4DE0-8651-46FB8FCE20A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dif vs 2do puesto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$G$4:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$K$4:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.12914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12877000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12646000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12585000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11764000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11613000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11238000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5780000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2850000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4520000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1300000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4390000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.416000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.6709999999999983E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5DD7-4DE0-8651-46FB8FCE20A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="1272867311"/>
+        <c:axId val="1272847759"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Posible Remonte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$G$4:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$H$4:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4.3230179028297414E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3335162926159035E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3511186142536934E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3985595926341894E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.415827611596608E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6470257701717539E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.689430778763011E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7950532804532216E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8666797716172702E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8195838321711421E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8257041426894682E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9081054662366191E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4243652304730864E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7966369750888142E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5544282793147718E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5608271753959067E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.733700146229562E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5564191374652385E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5DD7-4DE0-8651-46FB8FCE20A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráfica!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lift vs OP 2do puesto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="7030A0"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gráfica!$G$4:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>DEMOCRACIA DIRECTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PERU PATRIA SEGURA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RENACIMIENTO UNIDO NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UNION POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PARTIDO NACIONALISTA PERUANO</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PARTIDO DEMOCRATICO SOMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PARTIDO POPULAR CRISTIANO - PPC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PARTIDO MORADO</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>VICTORIA NACIONAL</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PODEMOS PERU</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>ALIANZA PARA EL PROGRESO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>JUNTOS POR EL PERU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ACCION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RENOVACION POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>FUERZA POPULAR</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>PARTIDO POLITICO NACIONAL PERU LIBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gráfica!$J$4:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5.8931775660017935E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9981614638634148E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1741846802413139E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6485944640462744E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8212746536704602E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1332562394219191E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.55730632533449E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0613531342236596E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1329796253877082E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0858836859415801E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0920039964599062E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1744053200070571E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6906650842435244E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0629368288592522E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8207281330852098E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8271270291663446E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8227189912356765E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5DD7-4DE0-8651-46FB8FCE20A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="1334042143"/>
+        <c:axId val="1334045887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1272867311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1272847759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1272847759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1272867311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1334045887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1334042143"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1334042143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1334045887"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71242171705937885"/>
+          <c:y val="0.7698315422836296"/>
+          <c:w val="0.28022883085941941"/>
+          <c:h val="0.14740669208801729"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2834,15 +6131,51 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597789</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>170688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE78A9E-AC35-45F4-9188-D24931177F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pablo" refreshedDate="44298.641092245372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pablo" refreshedDate="44298.793643171295" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="18">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A10:H28" sheet="Data"/>
+    <worksheetSource ref="A10:K28" sheet="Data"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="11">
     <cacheField name="Organización Política" numFmtId="0">
       <sharedItems count="18">
         <s v="PARTIDO NACIONALISTA PERUANO"/>
@@ -2866,25 +6199,104 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Votos" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="42046" maxValue="2231014"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44683" maxValue="2440596"/>
     </cacheField>
     <cacheField name="% Válidos" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34599999999999997" maxValue="18.338999999999999"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34599999999999997" maxValue="18.88"/>
     </cacheField>
     <cacheField name="Porcentaje Válidos" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4599999999999995E-3" maxValue="0.18339"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4599999999999995E-3" maxValue="0.1888"/>
     </cacheField>
     <cacheField name="Ganador" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.17993000000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.18534"/>
     </cacheField>
-    <cacheField name="Votos + Max Swing" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2561547" maxValue="4750515"/>
+    <cacheField name="2do puesto" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-5.6290000000000007E-2" maxValue="0.12905"/>
     </cacheField>
-    <cacheField name="Porcentaje Válidos + Max Swing" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.17443618105700734" maxValue="0.3235004841426018"/>
+    <cacheField name="Votos + Max Swing Ganador" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1161083.0190944828" maxValue="3556996.019094483"/>
+    </cacheField>
+    <cacheField name="Votos + Max Swing 2do puesto" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1161083.0190944828" maxValue="3556996.019094483"/>
+    </cacheField>
+    <cacheField name="Porcentaje Válidos + Max Swing Ganador" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5180569265343353E-2" maxValue="0.10777622510050769"/>
+    </cacheField>
+    <cacheField name="Porcentaje Válidos + Max Swing 2do puesto" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5180569265343353E-2" maxValue="0.10777622510050769"/>
     </cacheField>
     <cacheField name="Lift vs Ganador" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.9538189429926585E-3" maxValue="0.1401104841426018"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-7.2595655835164336E-2" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Pablo" refreshedDate="44298.822958101853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="18">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A10:L28" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Organización Política" numFmtId="0">
+      <sharedItems count="18">
+        <s v="PARTIDO NACIONALISTA PERUANO"/>
+        <s v="EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD"/>
+        <s v="PARTIDO MORADO"/>
+        <s v="PERU PATRIA SEGURA"/>
+        <s v="VICTORIA NACIONAL"/>
+        <s v="ACCION POPULAR"/>
+        <s v="AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL"/>
+        <s v="PODEMOS PERU"/>
+        <s v="JUNTOS POR EL PERU"/>
+        <s v="PARTIDO POPULAR CRISTIANO - PPC"/>
+        <s v="FUERZA POPULAR"/>
+        <s v="UNION POR EL PERU"/>
+        <s v="RENOVACION POPULAR"/>
+        <s v="RENACIMIENTO UNIDO NACIONAL"/>
+        <s v="PARTIDO DEMOCRATICO SOMOS PERU"/>
+        <s v="PARTIDO POLITICO NACIONAL PERU LIBRE"/>
+        <s v="DEMOCRACIA DIRECTA"/>
+        <s v="ALIANZA PARA EL PROGRESO"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Votos" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45294" maxValue="2487424"/>
+    </cacheField>
+    <cacheField name="% Válidos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.34499999999999997" maxValue="18.93"/>
+    </cacheField>
+    <cacheField name="Porcentaje Válidos" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.4499999999999999E-3" maxValue="0.1893"/>
+    </cacheField>
+    <cacheField name="Ganador" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.18584999999999999"/>
+    </cacheField>
+    <cacheField name="2do puesto" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-5.6709999999999983E-2" maxValue="0.12914"/>
+    </cacheField>
+    <cacheField name="Votos + Max Swing Ganador" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196490" maxValue="4459436"/>
+    </cacheField>
+    <cacheField name="Votos + Max Swing 2do puesto" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1742305" maxValue="4459436"/>
+    </cacheField>
+    <cacheField name="Porcentaje Válidos + Max Swing Ganador" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.2107136335638512E-3" maxValue="9.5564191374652385E-2"/>
+    </cacheField>
+    <cacheField name="Porcentaje Válidos + Max Swing 2do puesto" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.733700146229562E-2" maxValue="9.5564191374652385E-2"/>
+    </cacheField>
+    <cacheField name="Lift vs Ganador" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.135347774108854E-2"/>
+    </cacheField>
+    <cacheField name="Lift vs 2do puesto" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5.8227189912356765E-2"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2899,191 +6311,502 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
   <r>
     <x v="0"/>
-    <n v="174286"/>
-    <n v="1.4330000000000001"/>
-    <n v="1.4330000000000001E-2"/>
-    <n v="0.16905999999999999"/>
-    <n v="2693787"/>
-    <n v="0.18344145817391311"/>
-    <n v="5.1458173913110361E-5"/>
+    <n v="191646"/>
+    <n v="1.4830000000000001"/>
+    <n v="1.4830000000000001E-2"/>
+    <n v="0.17396999999999999"/>
+    <n v="0.11767999999999999"/>
+    <n v="1289715.9809055172"/>
+    <n v="1308046.0190944828"/>
+    <n v="3.9078120730981589E-2"/>
+    <n v="3.9633517001134787E-2"/>
+    <n v="-6.86981043695261E-2"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="52476"/>
-    <n v="0.43099999999999999"/>
-    <n v="4.3099999999999996E-3"/>
-    <n v="0.17907999999999999"/>
-    <n v="2571977"/>
-    <n v="0.17514644300747109"/>
-    <n v="-8.2435569925289054E-3"/>
+    <n v="57069"/>
+    <n v="0.441"/>
+    <n v="4.4099999999999999E-3"/>
+    <n v="0.18439"/>
+    <n v="0.12809999999999999"/>
+    <n v="1173469.0190944828"/>
+    <n v="1173469.0190944828"/>
+    <n v="3.5555862438832686E-2"/>
+    <n v="3.5555862438832686E-2"/>
+    <n v="-7.2220362661675003E-2"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="285058"/>
-    <n v="2.343"/>
-    <n v="2.3429999999999999E-2"/>
-    <n v="0.15995999999999999"/>
-    <n v="2804559"/>
-    <n v="0.19098480781694011"/>
-    <n v="7.5948078169401079E-3"/>
+    <n v="295398"/>
+    <n v="2.2850000000000001"/>
+    <n v="2.2850000000000002E-2"/>
+    <n v="0.16594999999999999"/>
+    <n v="0.10965999999999998"/>
+    <n v="1411798.0190944828"/>
+    <n v="1411798.0190944828"/>
+    <n v="4.2777180600025881E-2"/>
+    <n v="4.2777180600025881E-2"/>
+    <n v="-6.4999044500481801E-2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="46933"/>
-    <n v="0.38600000000000001"/>
-    <n v="3.8600000000000001E-3"/>
-    <n v="0.17953"/>
-    <n v="2566434"/>
-    <n v="0.17476897589419971"/>
-    <n v="-8.6210241058002901E-3"/>
+    <n v="49464"/>
+    <n v="0.38300000000000001"/>
+    <n v="3.8300000000000001E-3"/>
+    <n v="0.18497"/>
+    <n v="0.12867999999999999"/>
+    <n v="1165864.0190944828"/>
+    <n v="1165864.0190944828"/>
+    <n v="3.5325432551509391E-2"/>
+    <n v="3.5325432551509391E-2"/>
+    <n v="-7.2450792548998305E-2"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="691744"/>
-    <n v="5.6859999999999999"/>
-    <n v="5.6860000000000001E-2"/>
-    <n v="0.12653"/>
-    <n v="3211245"/>
-    <n v="0.2186793036545531"/>
-    <n v="3.52893036545531E-2"/>
+    <n v="729659"/>
+    <n v="5.6449999999999996"/>
+    <n v="5.6449999999999993E-2"/>
+    <n v="0.13235"/>
+    <n v="7.6059999999999989E-2"/>
+    <n v="1846059.0190944828"/>
+    <n v="1846059.0190944828"/>
+    <n v="5.5935196812899345E-2"/>
+    <n v="5.5935196812899345E-2"/>
+    <n v="-5.1841028287608344E-2"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="1097939"/>
-    <n v="9.0250000000000004"/>
-    <n v="9.0249999999999997E-2"/>
-    <n v="9.3140000000000001E-2"/>
-    <n v="3617440"/>
-    <n v="0.24634036338308868"/>
-    <n v="6.2950363383088681E-2"/>
+    <n v="1178208"/>
+    <n v="9.1150000000000002"/>
+    <n v="9.1150000000000009E-2"/>
+    <n v="9.7649999999999987E-2"/>
+    <n v="4.135999999999998E-2"/>
+    <n v="2294608.019094483"/>
+    <n v="2294608.019094483"/>
+    <n v="6.9526136395933927E-2"/>
+    <n v="6.9526136395933927E-2"/>
+    <n v="-3.8250088704573762E-2"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="1484747"/>
-    <n v="12.205"/>
-    <n v="0.12205000000000001"/>
-    <n v="6.1339999999999992E-2"/>
-    <n v="4004248"/>
-    <n v="0.27268120753792907"/>
-    <n v="8.9291207537929074E-2"/>
+    <n v="1538759"/>
+    <n v="11.904"/>
+    <n v="0.11903999999999999"/>
+    <n v="6.9760000000000003E-2"/>
+    <n v="1.3469999999999996E-2"/>
+    <n v="2655159.019094483"/>
+    <n v="2655159.019094483"/>
+    <n v="8.0450755239366192E-2"/>
+    <n v="8.0450755239366192E-2"/>
+    <n v="-2.7325469861141496E-2"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="687903"/>
-    <n v="5.6550000000000002"/>
-    <n v="5.6550000000000003E-2"/>
-    <n v="0.12684000000000001"/>
-    <n v="3207404"/>
-    <n v="0.21841773930635258"/>
-    <n v="3.5027739306352584E-2"/>
+    <n v="729875"/>
+    <n v="5.6459999999999999"/>
+    <n v="5.6459999999999996E-2"/>
+    <n v="0.13234000000000001"/>
+    <n v="7.6049999999999993E-2"/>
+    <n v="1846275.0190944828"/>
+    <n v="1846275.0190944828"/>
+    <n v="5.5941741567095513E-2"/>
+    <n v="5.5941741567095513E-2"/>
+    <n v="-5.1834483533412176E-2"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="955276"/>
-    <n v="7.8529999999999998"/>
-    <n v="7.8530000000000003E-2"/>
-    <n v="0.10485999999999999"/>
-    <n v="3474777"/>
-    <n v="0.23662530100159193"/>
-    <n v="5.3235301001591934E-2"/>
+    <n v="1009968"/>
+    <n v="7.8129999999999997"/>
+    <n v="7.8129999999999991E-2"/>
+    <n v="0.11067"/>
+    <n v="5.4379999999999998E-2"/>
+    <n v="2126368.019094483"/>
+    <n v="2126368.019094483"/>
+    <n v="6.4428500072032338E-2"/>
+    <n v="6.4428500072032338E-2"/>
+    <n v="-4.3347725028475351E-2"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="254232"/>
-    <n v="2.09"/>
-    <n v="2.0899999999999998E-2"/>
-    <n v="0.16249"/>
-    <n v="2773733"/>
-    <n v="0.18888561942911691"/>
-    <n v="5.4956194291169158E-3"/>
+    <n v="262018"/>
+    <n v="2.0270000000000001"/>
+    <n v="2.027E-2"/>
+    <n v="0.16852999999999999"/>
+    <n v="0.11223999999999999"/>
+    <n v="1378418.0190944828"/>
+    <n v="1378418.0190944828"/>
+    <n v="4.1765773678414879E-2"/>
+    <n v="4.1765773678414879E-2"/>
+    <n v="-6.6010451422092803E-2"/>
   </r>
   <r>
     <x v="10"/>
-    <n v="1609316"/>
-    <n v="13.228999999999999"/>
-    <n v="0.13228999999999999"/>
-    <n v="5.1100000000000007E-2"/>
-    <n v="4128817"/>
-    <n v="0.2811641050362339"/>
-    <n v="9.7774105036233905E-2"/>
+    <n v="1712874"/>
+    <n v="13.250999999999999"/>
+    <n v="0.13250999999999999"/>
+    <n v="5.6290000000000007E-2"/>
+    <n v="0"/>
+    <n v="2829274.019094483"/>
+    <n v="2810943.980905517"/>
+    <n v="8.5726402817445882E-2"/>
+    <n v="8.5171006547292663E-2"/>
+    <n v="-2.2049822283061807E-2"/>
   </r>
   <r>
     <x v="11"/>
-    <n v="79820"/>
-    <n v="0.65600000000000003"/>
-    <n v="6.5599999999999999E-3"/>
-    <n v="0.17682999999999999"/>
-    <n v="2599321"/>
-    <n v="0.17700851422256994"/>
-    <n v="-6.3814857774300571E-3"/>
+    <n v="86868"/>
+    <n v="0.67200000000000004"/>
+    <n v="6.7200000000000003E-3"/>
+    <n v="0.18207999999999999"/>
+    <n v="0.12578999999999999"/>
+    <n v="1203268.0190944828"/>
+    <n v="1203268.0190944828"/>
+    <n v="3.6458765819811903E-2"/>
+    <n v="3.6458765819811903E-2"/>
+    <n v="-7.1317459280695786E-2"/>
   </r>
   <r>
     <x v="12"/>
-    <n v="1471889"/>
-    <n v="12.099"/>
-    <n v="0.12099"/>
-    <n v="6.2399999999999997E-2"/>
-    <n v="3991390"/>
-    <n v="0.27180560368758744"/>
-    <n v="8.8415603687587441E-2"/>
+    <n v="1533475"/>
+    <n v="11.863"/>
+    <n v="0.11863"/>
+    <n v="7.0169999999999996E-2"/>
+    <n v="1.387999999999999E-2"/>
+    <n v="2649875.019094483"/>
+    <n v="2649875.019094483"/>
+    <n v="8.0290651159863724E-2"/>
+    <n v="8.0290651159863724E-2"/>
+    <n v="-2.7485573940643965E-2"/>
   </r>
   <r>
     <x v="13"/>
-    <n v="73188"/>
-    <n v="0.60199999999999998"/>
-    <n v="6.0200000000000002E-3"/>
-    <n v="0.17737"/>
-    <n v="2592689"/>
-    <n v="0.17655688840708811"/>
-    <n v="-6.8331115929118891E-3"/>
+    <n v="78755"/>
+    <n v="0.60899999999999999"/>
+    <n v="6.0899999999999999E-3"/>
+    <n v="0.18270999999999998"/>
+    <n v="0.12641999999999998"/>
+    <n v="1195155.0190944828"/>
+    <n v="1195155.0190944828"/>
+    <n v="3.6212943640212443E-2"/>
+    <n v="3.6212943640212443E-2"/>
+    <n v="-7.1563281460295253E-2"/>
   </r>
   <r>
     <x v="14"/>
-    <n v="199446"/>
-    <n v="1.639"/>
-    <n v="1.6390000000000002E-2"/>
-    <n v="0.16699999999999998"/>
-    <n v="2718947"/>
-    <n v="0.1851548033967001"/>
-    <n v="1.7648033967000987E-3"/>
+    <n v="212791"/>
+    <n v="1.6459999999999999"/>
+    <n v="1.6459999999999999E-2"/>
+    <n v="0.17233999999999999"/>
+    <n v="0.11604999999999999"/>
+    <n v="1329191.0190944828"/>
+    <n v="1329191.0190944828"/>
+    <n v="4.0274206017236185E-2"/>
+    <n v="4.0274206017236185E-2"/>
+    <n v="-6.7502019083271497E-2"/>
   </r>
   <r>
     <x v="15"/>
-    <n v="2231014"/>
-    <n v="18.338999999999999"/>
-    <n v="0.18339"/>
+    <n v="2440596"/>
+    <n v="18.88"/>
+    <n v="0.1888"/>
     <n v="0"/>
-    <n v="4750515"/>
-    <n v="0.3235004841426018"/>
-    <n v="0.1401104841426018"/>
+    <n v="-5.6290000000000007E-2"/>
+    <n v="3556996.019094483"/>
+    <n v="3556996.019094483"/>
+    <n v="0.10777622510050769"/>
+    <n v="0.10777622510050769"/>
+    <n v="0"/>
   </r>
   <r>
     <x v="16"/>
-    <n v="42046"/>
+    <n v="44683"/>
     <n v="0.34599999999999997"/>
     <n v="3.4599999999999995E-3"/>
-    <n v="0.17993000000000001"/>
-    <n v="2561547"/>
-    <n v="0.17443618105700734"/>
-    <n v="-8.9538189429926585E-3"/>
+    <n v="0.18534"/>
+    <n v="0.12905"/>
+    <n v="1161083.0190944828"/>
+    <n v="1161083.0190944828"/>
+    <n v="3.5180569265343353E-2"/>
+    <n v="3.5180569265343353E-2"/>
+    <n v="-7.2595655835164336E-2"/>
   </r>
   <r>
     <x v="17"/>
-    <n v="727909"/>
-    <n v="5.984"/>
-    <n v="5.9839999999999997E-2"/>
-    <n v="0.12354999999999999"/>
-    <n v="3247410"/>
-    <n v="0.22114206716735479"/>
-    <n v="3.7752067167354797E-2"/>
+    <n v="774555"/>
+    <n v="5.992"/>
+    <n v="5.9920000000000001E-2"/>
+    <n v="0.12887999999999999"/>
+    <n v="7.2589999999999988E-2"/>
+    <n v="1890955.0190944828"/>
+    <n v="1890955.0190944828"/>
+    <n v="5.7295536092487352E-2"/>
+    <n v="5.7295536092487352E-2"/>
+    <n v="-5.0480689008020337E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
+  <r>
+    <x v="0"/>
+    <n v="196490"/>
+    <n v="1.4950000000000001"/>
+    <n v="1.4950000000000001E-2"/>
+    <n v="0.17435"/>
+    <n v="0.11764000000000001"/>
+    <n v="196490"/>
+    <n v="2168502"/>
+    <n v="4.2107136335638512E-3"/>
+    <n v="4.6470257701717539E-2"/>
+    <n v="0"/>
+    <n v="9.1332562394219191E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="58407"/>
+    <n v="0.44400000000000001"/>
+    <n v="4.4400000000000004E-3"/>
+    <n v="0.18486"/>
+    <n v="0.12815000000000001"/>
+    <n v="2030419"/>
+    <n v="2030419"/>
+    <n v="4.3511186142536934E-2"/>
+    <n v="4.3511186142536934E-2"/>
+    <n v="3.9300472508973082E-2"/>
+    <n v="6.1741846802413139E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="298990"/>
+    <n v="2.2749999999999999"/>
+    <n v="2.2749999999999999E-2"/>
+    <n v="0.16655"/>
+    <n v="0.10984000000000002"/>
+    <n v="2271002"/>
+    <n v="2271002"/>
+    <n v="4.8666797716172702E-2"/>
+    <n v="4.8666797716172702E-2"/>
+    <n v="4.445608408260885E-2"/>
+    <n v="1.1329796253877082E-2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="50193"/>
+    <n v="0.38200000000000001"/>
+    <n v="3.82E-3"/>
+    <n v="0.18548000000000001"/>
+    <n v="0.12877000000000002"/>
+    <n v="2022205"/>
+    <n v="2022205"/>
+    <n v="4.3335162926159035E-2"/>
+    <n v="4.3335162926159035E-2"/>
+    <n v="3.9124449292595183E-2"/>
+    <n v="5.9981614638634148E-3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="743656"/>
+    <n v="5.6589999999999998"/>
+    <n v="5.6590000000000001E-2"/>
+    <n v="0.13270999999999999"/>
+    <n v="7.6000000000000012E-2"/>
+    <n v="2715668"/>
+    <n v="2715668"/>
+    <n v="5.8195838321711421E-2"/>
+    <n v="5.8195838321711421E-2"/>
+    <n v="5.3985124688147569E-2"/>
+    <n v="2.0858836859415801E-2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1199591"/>
+    <n v="9.1289999999999996"/>
+    <n v="9.1289999999999996E-2"/>
+    <n v="9.801E-2"/>
+    <n v="4.1300000000000017E-2"/>
+    <n v="3171603"/>
+    <n v="3171603"/>
+    <n v="6.7966369750888142E-2"/>
+    <n v="6.7966369750888142E-2"/>
+    <n v="6.3755656117324297E-2"/>
+    <n v="3.0629368288592522E-2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1556195"/>
+    <n v="11.843"/>
+    <n v="0.11842999999999999"/>
+    <n v="7.0870000000000002E-2"/>
+    <n v="1.416000000000002E-2"/>
+    <n v="3528207"/>
+    <n v="3528207"/>
+    <n v="7.5608271753959067E-2"/>
+    <n v="7.5608271753959067E-2"/>
+    <n v="7.1397558120395221E-2"/>
+    <n v="3.8271270291663446E-2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="746512"/>
+    <n v="5.681"/>
+    <n v="5.6809999999999999E-2"/>
+    <n v="0.13249"/>
+    <n v="7.5780000000000014E-2"/>
+    <n v="2718524"/>
+    <n v="2718524"/>
+    <n v="5.8257041426894682E-2"/>
+    <n v="5.8257041426894682E-2"/>
+    <n v="5.404632779333083E-2"/>
+    <n v="2.0920039964599062E-2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1025873"/>
+    <n v="7.8070000000000004"/>
+    <n v="7.8070000000000001E-2"/>
+    <n v="0.11123"/>
+    <n v="5.4520000000000013E-2"/>
+    <n v="2997885"/>
+    <n v="2997885"/>
+    <n v="6.4243652304730864E-2"/>
+    <n v="6.4243652304730864E-2"/>
+    <n v="6.0032938671167012E-2"/>
+    <n v="2.6906650842435244E-2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="265566"/>
+    <n v="2.0209999999999999"/>
+    <n v="2.0209999999999999E-2"/>
+    <n v="0.16908999999999999"/>
+    <n v="0.11238000000000001"/>
+    <n v="2237578"/>
+    <n v="2237578"/>
+    <n v="4.7950532804532216E-2"/>
+    <n v="4.7950532804532216E-2"/>
+    <n v="4.3739819170968364E-2"/>
+    <n v="1.0613531342236596E-2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1742305"/>
+    <n v="13.259"/>
+    <n v="0.13259000000000001"/>
+    <n v="5.6709999999999983E-2"/>
+    <n v="0"/>
+    <n v="3714317"/>
+    <n v="1742305"/>
+    <n v="7.95965455304493E-2"/>
+    <n v="3.733700146229562E-2"/>
+    <n v="7.5385831896885455E-2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="88603"/>
+    <n v="0.67400000000000004"/>
+    <n v="6.7400000000000003E-3"/>
+    <n v="0.18256"/>
+    <n v="0.12585000000000002"/>
+    <n v="2060615"/>
+    <n v="2060615"/>
+    <n v="4.415827611596608E-2"/>
+    <n v="4.415827611596608E-2"/>
+    <n v="3.9947562482402228E-2"/>
+    <n v="6.8212746536704602E-3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1553209"/>
+    <n v="11.82"/>
+    <n v="0.1182"/>
+    <n v="7.1099999999999997E-2"/>
+    <n v="1.4390000000000014E-2"/>
+    <n v="3525221"/>
+    <n v="3525221"/>
+    <n v="7.5544282793147718E-2"/>
+    <n v="7.5544282793147718E-2"/>
+    <n v="7.1333569159583873E-2"/>
+    <n v="3.8207281330852098E-2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="80545"/>
+    <n v="0.61299999999999999"/>
+    <n v="6.13E-3"/>
+    <n v="0.18317"/>
+    <n v="0.12646000000000002"/>
+    <n v="2052557"/>
+    <n v="2052557"/>
+    <n v="4.3985595926341894E-2"/>
+    <n v="4.3985595926341894E-2"/>
+    <n v="3.9774882292778042E-2"/>
+    <n v="6.6485944640462744E-3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="216278"/>
+    <n v="1.6459999999999999"/>
+    <n v="1.6459999999999999E-2"/>
+    <n v="0.17283999999999999"/>
+    <n v="0.11613000000000001"/>
+    <n v="2188290"/>
+    <n v="2188290"/>
+    <n v="4.689430778763011E-2"/>
+    <n v="4.689430778763011E-2"/>
+    <n v="4.2683594154066258E-2"/>
+    <n v="9.55730632533449E-3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2487424"/>
+    <n v="18.93"/>
+    <n v="0.1893"/>
+    <n v="0"/>
+    <n v="-5.6709999999999983E-2"/>
+    <n v="4459436"/>
+    <n v="4459436"/>
+    <n v="9.5564191374652385E-2"/>
+    <n v="9.5564191374652385E-2"/>
+    <n v="9.135347774108854E-2"/>
+    <n v="5.8227189912356765E-2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="45294"/>
+    <n v="0.34499999999999997"/>
+    <n v="3.4499999999999999E-3"/>
+    <n v="0.18584999999999999"/>
+    <n v="0.12914"/>
+    <n v="2017306"/>
+    <n v="2017306"/>
+    <n v="4.3230179028297414E-2"/>
+    <n v="4.3230179028297414E-2"/>
+    <n v="3.9019465394733562E-2"/>
+    <n v="5.8931775660017935E-3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="784964"/>
+    <n v="5.9740000000000002"/>
+    <n v="5.9740000000000001E-2"/>
+    <n v="0.12956000000000001"/>
+    <n v="7.2850000000000012E-2"/>
+    <n v="2756976"/>
+    <n v="2756976"/>
+    <n v="5.9081054662366191E-2"/>
+    <n v="5.9081054662366191E-2"/>
+    <n v="5.4870341028802339E-2"/>
+    <n v="2.1744053200070571E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Organización Política">
-  <location ref="A3:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica4" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12" rowHeaderCaption="Organización Política">
+  <location ref="G3:K21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="19">
         <item x="5"/>
@@ -3110,7 +6833,7 @@
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -3119,9 +6842,13 @@
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -3156,10 +6883,10 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="1"/>
@@ -3201,13 +6928,13 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Posible Remonte" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Posible Remonte" fld="9" baseField="0" baseItem="10"/>
     <dataField name="Porcentaje Votos Válidos" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Lift vs OP Ganador" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Dif vs Ganador" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Lift vs OP 2do puesto" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Dif vs 2do puesto" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -3215,7 +6942,204 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="9">
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica3" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption="Organización Política">
+  <location ref="A3:E21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="19">
+        <item x="5"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Posible Remonte" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Porcentaje Votos Válidos" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Lift vs OP Ganador" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Dif vs Ganador" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="22">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3230,15 +7154,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3264,38 +7179,215 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
+    <chartFormat chart="0" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
+    <chartFormat chart="0" format="20">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="8" series="1">
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3610,10 +7702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3623,364 +7715,696 @@
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.17443618105700734</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="6">
+        <v>3.5180569265343353E-2</v>
+      </c>
+      <c r="C4" s="6">
         <v>3.4599999999999995E-3</v>
       </c>
-      <c r="D4" s="5">
-        <v>-8.9538189429926585E-3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.17993000000000001</v>
+      <c r="D4" s="6">
+        <v>-7.2595655835164336E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.18534</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4.3230179028297414E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.8931775660017935E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.12914</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.17476897589419971</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.8600000000000001E-3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>-8.6210241058002901E-3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.17953</v>
+      <c r="B5" s="6">
+        <v>3.5325432551509391E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-7.2450792548998305E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.18497</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4.3335162926159035E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.82E-3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5.9981614638634148E-3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.12877000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.17514644300747109</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4.3099999999999996E-3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-8.2435569925289054E-3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.17907999999999999</v>
+      <c r="B6" s="6">
+        <v>3.5555862438832686E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-7.2220362661675003E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.18439</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.3511186142536934E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4.4400000000000004E-3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6.1741846802413139E-3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.12815000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.17655688840708811</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6.0200000000000002E-3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>-6.8331115929118891E-3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.17737</v>
+      <c r="B7" s="6">
+        <v>3.6212943640212443E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.0899999999999999E-3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-7.1563281460295253E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.18270999999999998</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4.3985595926341894E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>6.13E-3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6.6485944640462744E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.12646000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.17700851422256994</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.5599999999999999E-3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-6.3814857774300571E-3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.17682999999999999</v>
+      <c r="B8" s="6">
+        <v>3.6458765819811903E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6.7200000000000003E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-7.1317459280695786E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.18207999999999999</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.415827611596608E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6.7400000000000003E-3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6.8212746536704602E-3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.12585000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.18344145817391311</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1.4330000000000001E-2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.1458173913110361E-5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.16905999999999999</v>
+      <c r="B9" s="6">
+        <v>3.9078120730981589E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.4830000000000001E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-6.86981043695261E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.17396999999999999</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4.6470257701717539E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.4950000000000001E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>9.1332562394219191E-3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.11764000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.1851548033967001</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.6390000000000002E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.7648033967000987E-3</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.16699999999999998</v>
+      <c r="B10" s="6">
+        <v>4.0274206017236185E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.6459999999999999E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-6.7502019083271497E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.17233999999999999</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4.689430778763011E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.6459999999999999E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9.55730632533449E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.11613000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
-        <v>0.18888561942911691</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.4956194291169158E-3</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.16249</v>
+      <c r="B11" s="6">
+        <v>4.1765773678414879E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.027E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-6.6010451422092803E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.16852999999999999</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.7950532804532216E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2.0209999999999999E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.0613531342236596E-2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.11238000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
-        <v>0.19098480781694011</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.3429999999999999E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.5948078169401079E-3</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.15995999999999999</v>
+      <c r="B12" s="6">
+        <v>4.2777180600025881E-2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.2850000000000002E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>-6.4999044500481801E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.16594999999999999</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.8666797716172702E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2.2749999999999999E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.1329796253877082E-2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.10984000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.5935196812899345E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.6449999999999993E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-5.1841028287608344E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.13235</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5.8195838321711421E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5.6590000000000001E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2.0858836859415801E-2</v>
+      </c>
+      <c r="K13" s="6">
+        <v>7.6000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
-        <v>0.21841773930635258</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5.6550000000000003E-2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3.5027739306352584E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.12684000000000001</v>
+      <c r="B14" s="6">
+        <v>5.5941741567095513E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5.6459999999999996E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-5.1834483533412176E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.13234000000000001</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5.8257041426894682E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.6809999999999999E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2.0920039964599062E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>7.5780000000000014E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.2186793036545531</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5.6860000000000001E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3.52893036545531E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.12653</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.7295536092487352E-2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5.9920000000000001E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-5.0480689008020337E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.12887999999999999</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5.9081054662366191E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5.9740000000000001E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2.1744053200070571E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7.2850000000000012E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.22114206716735479</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5.9839999999999997E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3.7752067167354797E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.12354999999999999</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.4428500072032338E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7.8129999999999991E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-4.3347725028475351E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.11067</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6.4243652304730864E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7.8070000000000001E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2.6906650842435244E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5.4520000000000013E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.23662530100159193</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7.8530000000000003E-2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5.3235301001591934E-2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.10485999999999999</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6.9526136395933927E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>9.1150000000000009E-2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-3.8250088704573762E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9.7649999999999987E-2</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6">
+        <v>6.7966369750888142E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>9.1289999999999996E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3.0629368288592522E-2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.1300000000000017E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.24634036338308868</v>
-      </c>
-      <c r="C17" s="5">
-        <v>9.0249999999999997E-2</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6.2950363383088681E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>9.3140000000000001E-2</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8.0290651159863724E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.11863</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-2.7485573940643965E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.0169999999999996E-2</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7.5544282793147718E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.1182</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3.8207281330852098E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.4390000000000014E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.27180560368758744</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.12099</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8.8415603687587441E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>6.2399999999999997E-2</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6">
+        <v>8.0450755239366192E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.11903999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>-2.7325469861141496E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6.9760000000000003E-2</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7.5608271753959067E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.11842999999999999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.8271270291663446E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1.416000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.27268120753792907</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.12205000000000001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>8.9291207537929074E-2</v>
-      </c>
-      <c r="E19" s="5">
-        <v>6.1339999999999992E-2</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>8.5726402817445882E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.13250999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>-2.2049822283061807E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>5.6290000000000007E-2</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <v>3.733700146229562E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.13259000000000001</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.2811641050362339</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.13228999999999999</v>
-      </c>
-      <c r="D20" s="5">
-        <v>9.7774105036233905E-2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>5.1100000000000007E-2</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.10777622510050769</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.1888</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6">
+        <v>9.5564191374652385E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.1893</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5.8227189912356765E-2</v>
+      </c>
+      <c r="K21" s="6">
+        <v>-5.6709999999999983E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.3235004841426018</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.18339</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.1401104841426018</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>"Actualización de resultados al "&amp;TEXT(Data!$I$7,"0.0%")&amp;" de conteo de actas. Ya no es posible un remonte. El partido del lápiz saca ventaja a todos los otros partidos en esta ronda."</f>
+        <v>Actualización de resultados al 87.0% de conteo de actas. Ya no es posible un remonte. El partido del lápiz saca ventaja a todos los otros partidos en esta ronda.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>"Actualización de resultados al "&amp;TEXT(Data!$I$7,"0.0%")&amp;" de conteo de actas. Renovación Popular requeriría un "&amp;TEXT(Data!$G$7,"0.0%")&amp;" de los votos pendientes para sacar ventaja a Fuerza Popular en el segundo puesto."</f>
+        <v>Actualización de resultados al 87.0% de conteo de actas. Renovación Popular requeriría un 100.0% de los votos pendientes para sacar ventaja a Fuerza Popular en el segundo puesto.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3991,13 +8415,16 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
-        <v>50</v>
+      <c r="I6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>19733683</v>
       </c>
@@ -4007,730 +8434,1068 @@
       <c r="C7">
         <v>72.814999999999998</v>
       </c>
-      <c r="G7" s="2">
-        <f>ROUNDDOWN((B29/(B36/A36))*(1-(B36/A36)),0)</f>
-        <v>2519501</v>
-      </c>
-      <c r="H7" s="4">
-        <f>B29/F29</f>
-        <v>0.82842706668692356</v>
-      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <f>ROUNDDOWN((B29/((B36-C36+A51+B51)/(A41+B41+C41)))*(1-((B36-C36+A51+B51)/(A41+B41+C41))),0)</f>
+        <v>1972012</v>
+      </c>
+      <c r="I7" s="13">
+        <f>(B36-C36+A51+B51)/(A41+B41+C41)</f>
+        <v>0.86950780173062892</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
+      <c r="L10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10">
-        <v>174286</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="15">
+        <v>196490</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="D11" s="16">
         <f>C11/100</f>
-        <v>1.4330000000000001E-2</v>
-      </c>
-      <c r="E11" s="4">
+        <v>1.4950000000000001E-2</v>
+      </c>
+      <c r="E11" s="16">
         <f>MAX($D$11:$D$28)-D11</f>
-        <v>0.16905999999999999</v>
-      </c>
-      <c r="F11" s="3">
-        <f>B11+$G$7</f>
-        <v>2693787</v>
-      </c>
-      <c r="G11" s="4">
-        <f>F11/$F$29</f>
-        <v>0.18344145817391311</v>
-      </c>
-      <c r="H11" s="4">
-        <f>G11-MAX($C$11:$C$28)/100</f>
-        <v>5.1458173913110361E-5</v>
+        <v>0.17435</v>
+      </c>
+      <c r="F11" s="16">
+        <f>LARGE($D$11:$D$28,2)-D11</f>
+        <v>0.11764000000000001</v>
+      </c>
+      <c r="G11" s="17">
+        <f>B11+$H$7*(1-$G$7)</f>
+        <v>196490</v>
+      </c>
+      <c r="H11" s="17">
+        <f>B11+$H$7*$G$7</f>
+        <v>2168502</v>
+      </c>
+      <c r="I11" s="16">
+        <f>G11/$G$29</f>
+        <v>4.2107136335638512E-3</v>
+      </c>
+      <c r="J11" s="16">
+        <f>H11/$H$29</f>
+        <v>4.6470257701717539E-2</v>
+      </c>
+      <c r="K11" s="16">
+        <f>I11-I$11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <f>J11-J$21</f>
+        <v>9.1332562394219191E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10">
-        <v>52476</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="11">
+        <v>58407</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D12" s="5">
         <f t="shared" ref="D12:D29" si="0">C12/100</f>
-        <v>4.3099999999999996E-3</v>
-      </c>
-      <c r="E12" s="4">
+        <v>4.4400000000000004E-3</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" ref="E12:E28" si="1">MAX($D$11:$D$28)-D12</f>
-        <v>0.17907999999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F29" si="2">B12+$G$7</f>
-        <v>2571977</v>
+        <v>0.18486</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F28" si="2">LARGE($D$11:$D$28,2)-D12</f>
+        <v>0.12815000000000001</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G29" si="3">F12/$F$29</f>
-        <v>0.17514644300747109</v>
+        <f>B12+$H$7*($G$7)</f>
+        <v>2030419</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:H28" si="4">G12-MAX($C$11:$C$28)/100</f>
-        <v>-8.2435569925289054E-3</v>
+        <f t="shared" ref="H12:H28" si="3">B12+$H$7*$G$7</f>
+        <v>2030419</v>
+      </c>
+      <c r="I12" s="5">
+        <f>G12/$G$29</f>
+        <v>4.3511186142536934E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J28" si="4">H12/$H$29</f>
+        <v>4.3511186142536934E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" ref="K12:K28" si="5">I12-I$11</f>
+        <v>3.9300472508973082E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ref="L12:L28" si="6">J12-J$21</f>
+        <v>6.1741846802413139E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10">
-        <v>285058</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2.343</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="11">
+        <v>298990</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>2.3429999999999999E-2</v>
-      </c>
-      <c r="E13" s="4">
+        <v>2.2749999999999999E-2</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>0.15995999999999999</v>
-      </c>
-      <c r="F13" s="3">
+        <v>0.16655</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
-        <v>2804559</v>
+        <v>0.10984000000000002</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" ref="G13:G28" si="7">B13+$H$7*($G$7)</f>
+        <v>2271002</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>0.19098480781694011</v>
-      </c>
-      <c r="H13" s="4">
+        <v>2271002</v>
+      </c>
+      <c r="I13" s="5">
+        <f>G13/$G$29</f>
+        <v>4.8666797716172702E-2</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="4"/>
-        <v>7.5948078169401079E-3</v>
+        <v>4.8666797716172702E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="5"/>
+        <v>4.445608408260885E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1329796253877082E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10">
-        <v>46933</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="11">
+        <v>50193</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>3.8600000000000001E-3</v>
-      </c>
-      <c r="E14" s="4">
+        <v>3.82E-3</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>0.17953</v>
-      </c>
-      <c r="F14" s="3">
+        <v>0.18548000000000001</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
-        <v>2566434</v>
+        <v>0.12877000000000002</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="7"/>
+        <v>2022205</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>0.17476897589419971</v>
-      </c>
-      <c r="H14" s="4">
+        <v>2022205</v>
+      </c>
+      <c r="I14" s="5">
+        <f>G14/$G$29</f>
+        <v>4.3335162926159035E-2</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="4"/>
-        <v>-8.6210241058002901E-3</v>
+        <v>4.3335162926159035E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9124449292595183E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="6"/>
+        <v>5.9981614638634148E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10">
-        <v>691744</v>
-      </c>
-      <c r="C15" s="9">
-        <v>5.6859999999999999</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="11">
+        <v>743656</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.6589999999999998</v>
+      </c>
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>5.6860000000000001E-2</v>
-      </c>
-      <c r="E15" s="4">
+        <v>5.6590000000000001E-2</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>0.12653</v>
-      </c>
-      <c r="F15" s="3">
+        <v>0.13270999999999999</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
-        <v>3211245</v>
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="7"/>
+        <v>2715668</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="3"/>
-        <v>0.2186793036545531</v>
-      </c>
-      <c r="H15" s="4">
+        <v>2715668</v>
+      </c>
+      <c r="I15" s="5">
+        <f>G15/$G$29</f>
+        <v>5.8195838321711421E-2</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="4"/>
-        <v>3.52893036545531E-2</v>
+        <v>5.8195838321711421E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="5"/>
+        <v>5.3985124688147569E-2</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0858836859415801E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
-        <v>1097939</v>
-      </c>
-      <c r="C16" s="9">
-        <v>9.0250000000000004</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="11">
+        <v>1199591</v>
+      </c>
+      <c r="C16" s="10">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>9.0249999999999997E-2</v>
-      </c>
-      <c r="E16" s="4">
+        <v>9.1289999999999996E-2</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>9.3140000000000001E-2</v>
-      </c>
-      <c r="F16" s="3">
+        <v>9.801E-2</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="2"/>
-        <v>3617440</v>
+        <v>4.1300000000000017E-2</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="7"/>
+        <v>3171603</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>0.24634036338308868</v>
-      </c>
-      <c r="H16" s="4">
+        <v>3171603</v>
+      </c>
+      <c r="I16" s="5">
+        <f>G16/$G$29</f>
+        <v>6.7966369750888142E-2</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="4"/>
-        <v>6.2950363383088681E-2</v>
+        <v>6.7966369750888142E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="5"/>
+        <v>6.3755656117324297E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="6"/>
+        <v>3.0629368288592522E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10">
-        <v>1484747</v>
-      </c>
-      <c r="C17" s="9">
-        <v>12.205</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="19">
+        <v>1556195</v>
+      </c>
+      <c r="C17" s="18">
+        <v>11.843</v>
+      </c>
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
-        <v>0.12205000000000001</v>
-      </c>
-      <c r="E17" s="4">
+        <v>0.11842999999999999</v>
+      </c>
+      <c r="E17" s="20">
         <f t="shared" si="1"/>
-        <v>6.1339999999999992E-2</v>
-      </c>
-      <c r="F17" s="3">
+        <v>7.0870000000000002E-2</v>
+      </c>
+      <c r="F17" s="20">
         <f t="shared" si="2"/>
-        <v>4004248</v>
-      </c>
-      <c r="G17" s="4">
+        <v>1.416000000000002E-2</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="7"/>
+        <v>3528207</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="3"/>
-        <v>0.27268120753792907</v>
-      </c>
-      <c r="H17" s="4">
+        <v>3528207</v>
+      </c>
+      <c r="I17" s="20">
+        <f>G17/$G$29</f>
+        <v>7.5608271753959067E-2</v>
+      </c>
+      <c r="J17" s="20">
         <f t="shared" si="4"/>
-        <v>8.9291207537929074E-2</v>
+        <v>7.5608271753959067E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="5"/>
+        <v>7.1397558120395221E-2</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="6"/>
+        <v>3.8271270291663446E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="10">
-        <v>687903</v>
-      </c>
-      <c r="C18" s="9">
-        <v>5.6550000000000002</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="11">
+        <v>746512</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5.681</v>
+      </c>
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>5.6550000000000003E-2</v>
-      </c>
-      <c r="E18" s="4">
+        <v>5.6809999999999999E-2</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>0.12684000000000001</v>
-      </c>
-      <c r="F18" s="3">
+        <v>0.13249</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
-        <v>3207404</v>
+        <v>7.5780000000000014E-2</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="7"/>
+        <v>2718524</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>0.21841773930635258</v>
-      </c>
-      <c r="H18" s="4">
+        <v>2718524</v>
+      </c>
+      <c r="I18" s="5">
+        <f>G18/$G$29</f>
+        <v>5.8257041426894682E-2</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="4"/>
-        <v>3.5027739306352584E-2</v>
+        <v>5.8257041426894682E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="5"/>
+        <v>5.404632779333083E-2</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="6"/>
+        <v>2.0920039964599062E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10">
-        <v>955276</v>
-      </c>
-      <c r="C19" s="9">
-        <v>7.8529999999999998</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="B19" s="11">
+        <v>1025873</v>
+      </c>
+      <c r="C19" s="10">
+        <v>7.8070000000000004</v>
+      </c>
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>7.8530000000000003E-2</v>
-      </c>
-      <c r="E19" s="4">
+        <v>7.8070000000000001E-2</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>0.10485999999999999</v>
-      </c>
-      <c r="F19" s="3">
+        <v>0.11123</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
-        <v>3474777</v>
+        <v>5.4520000000000013E-2</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="7"/>
+        <v>2997885</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>0.23662530100159193</v>
-      </c>
-      <c r="H19" s="4">
+        <v>2997885</v>
+      </c>
+      <c r="I19" s="5">
+        <f>G19/$G$29</f>
+        <v>6.4243652304730864E-2</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="4"/>
-        <v>5.3235301001591934E-2</v>
+        <v>6.4243652304730864E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="5"/>
+        <v>6.0032938671167012E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6906650842435244E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="10">
-        <v>254232</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2.09</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="11">
+        <v>265566</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="E20" s="4">
+        <v>2.0209999999999999E-2</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>0.16249</v>
-      </c>
-      <c r="F20" s="3">
+        <v>0.16908999999999999</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
-        <v>2773733</v>
+        <v>0.11238000000000001</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="7"/>
+        <v>2237578</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="3"/>
-        <v>0.18888561942911691</v>
-      </c>
-      <c r="H20" s="4">
+        <v>2237578</v>
+      </c>
+      <c r="I20" s="5">
+        <f>G20/$G$29</f>
+        <v>4.7950532804532216E-2</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="4"/>
-        <v>5.4956194291169158E-3</v>
+        <v>4.7950532804532216E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="5"/>
+        <v>4.3739819170968364E-2</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0613531342236596E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10">
-        <v>1609316</v>
-      </c>
-      <c r="C21" s="9">
-        <v>13.228999999999999</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="B21" s="23">
+        <v>1742305</v>
+      </c>
+      <c r="C21" s="22">
+        <v>13.259</v>
+      </c>
+      <c r="D21" s="24">
         <f t="shared" si="0"/>
-        <v>0.13228999999999999</v>
-      </c>
-      <c r="E21" s="4">
+        <v>0.13259000000000001</v>
+      </c>
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
-        <v>5.1100000000000007E-2</v>
-      </c>
-      <c r="F21" s="3">
+        <v>5.6709999999999983E-2</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
-        <v>4128817</v>
-      </c>
-      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="7"/>
+        <v>3714317</v>
+      </c>
+      <c r="H21" s="25">
+        <f>B21+$H$7*(1-$G$7)</f>
+        <v>1742305</v>
+      </c>
+      <c r="I21" s="24">
+        <f>G21/$G$29</f>
+        <v>7.95965455304493E-2</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="4"/>
+        <v>3.733700146229562E-2</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="5"/>
+        <v>7.5385831896885455E-2</v>
+      </c>
+      <c r="L21" s="24">
+        <f>J21-J$21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="11">
+        <v>88603</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7400000000000003E-3</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>0.18256</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12585000000000002</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>2060615</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="3"/>
-        <v>0.2811641050362339</v>
-      </c>
-      <c r="H21" s="4">
+        <v>2060615</v>
+      </c>
+      <c r="I22" s="5">
+        <f>G22/$G$29</f>
+        <v>4.415827611596608E-2</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="4"/>
-        <v>9.7774105036233905E-2</v>
+        <v>4.415827611596608E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9947562482402228E-2</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="6"/>
+        <v>6.8212746536704602E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10">
-        <v>79820</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="D22" s="4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="27">
+        <v>1553209</v>
+      </c>
+      <c r="C23" s="26">
+        <v>11.82</v>
+      </c>
+      <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>6.5599999999999999E-3</v>
-      </c>
-      <c r="E22" s="4">
+        <v>0.1182</v>
+      </c>
+      <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>0.17682999999999999</v>
-      </c>
-      <c r="F22" s="3">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="F23" s="28">
         <f t="shared" si="2"/>
-        <v>2599321</v>
-      </c>
-      <c r="G22" s="4">
+        <v>1.4390000000000014E-2</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="7"/>
+        <v>3525221</v>
+      </c>
+      <c r="H23" s="29">
         <f t="shared" si="3"/>
-        <v>0.17700851422256994</v>
-      </c>
-      <c r="H22" s="4">
+        <v>3525221</v>
+      </c>
+      <c r="I23" s="28">
+        <f>G23/$G$29</f>
+        <v>7.5544282793147718E-2</v>
+      </c>
+      <c r="J23" s="28">
         <f t="shared" si="4"/>
-        <v>-6.3814857774300571E-3</v>
+        <v>7.5544282793147718E-2</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="5"/>
+        <v>7.1333569159583873E-2</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" si="6"/>
+        <v>3.8207281330852098E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1471889</v>
-      </c>
-      <c r="C23" s="9">
-        <v>12.099</v>
-      </c>
-      <c r="D23" s="4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="11">
+        <v>80545</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
-        <v>0.12099</v>
-      </c>
-      <c r="E23" s="4">
+        <v>6.13E-3</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="F23" s="3">
+        <v>0.18317</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
-        <v>3991390</v>
-      </c>
-      <c r="G23" s="4">
+        <v>0.12646000000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="7"/>
+        <v>2052557</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="3"/>
-        <v>0.27180560368758744</v>
-      </c>
-      <c r="H23" s="4">
+        <v>2052557</v>
+      </c>
+      <c r="I24" s="5">
+        <f>G24/$G$29</f>
+        <v>4.3985595926341894E-2</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="4"/>
-        <v>8.8415603687587441E-2</v>
+        <v>4.3985595926341894E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9774882292778042E-2</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="6"/>
+        <v>6.6485944640462744E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="10">
-        <v>73188</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="D24" s="4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11">
+        <v>216278</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
-        <v>6.0200000000000002E-3</v>
-      </c>
-      <c r="E24" s="4">
+        <v>1.6459999999999999E-2</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>0.17737</v>
-      </c>
-      <c r="F24" s="3">
+        <v>0.17283999999999999</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
-        <v>2592689</v>
-      </c>
-      <c r="G24" s="4">
+        <v>0.11613000000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="7"/>
+        <v>2188290</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" si="3"/>
-        <v>0.17655688840708811</v>
-      </c>
-      <c r="H24" s="4">
+        <v>2188290</v>
+      </c>
+      <c r="I25" s="5">
+        <f>G25/$G$29</f>
+        <v>4.689430778763011E-2</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
-        <v>-6.8331115929118891E-3</v>
+        <v>4.689430778763011E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="5"/>
+        <v>4.2683594154066258E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="6"/>
+        <v>9.55730632533449E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10">
-        <v>199446</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1.639</v>
-      </c>
-      <c r="D25" s="4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2487424</v>
+      </c>
+      <c r="C26" s="10">
+        <v>18.93</v>
+      </c>
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
-        <v>1.6390000000000002E-2</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16699999999999998</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="2"/>
-        <v>2718947</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>0.1851548033967001</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="4"/>
-        <v>1.7648033967000987E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="10">
-        <v>2231014</v>
-      </c>
-      <c r="C26" s="9">
-        <v>18.338999999999999</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18339</v>
-      </c>
-      <c r="E26" s="4">
+        <v>0.1893</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
-        <v>4750515</v>
+        <v>-5.6709999999999983E-2</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="7"/>
+        <v>4459436</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="3"/>
-        <v>0.3235004841426018</v>
-      </c>
-      <c r="H26" s="4">
+        <v>4459436</v>
+      </c>
+      <c r="I26" s="5">
+        <f>G26/$G$29</f>
+        <v>9.5564191374652385E-2</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>0.1401104841426018</v>
+        <v>9.5564191374652385E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="5"/>
+        <v>9.135347774108854E-2</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="6"/>
+        <v>5.8227189912356765E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="10">
-        <v>42046</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="B27" s="11">
+        <v>45294</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>3.4599999999999995E-3</v>
-      </c>
-      <c r="E27" s="4">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>0.17993000000000001</v>
-      </c>
-      <c r="F27" s="3">
+        <v>0.18584999999999999</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
-        <v>2561547</v>
+        <v>0.12914</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="7"/>
+        <v>2017306</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="3"/>
-        <v>0.17443618105700734</v>
-      </c>
-      <c r="H27" s="4">
+        <v>2017306</v>
+      </c>
+      <c r="I27" s="5">
+        <f>G27/$G$29</f>
+        <v>4.3230179028297414E-2</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="4"/>
-        <v>-8.9538189429926585E-3</v>
+        <v>4.3230179028297414E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="5"/>
+        <v>3.9019465394733562E-2</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="6"/>
+        <v>5.8931775660017935E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="10">
-        <v>727909</v>
-      </c>
-      <c r="C28" s="9">
-        <v>5.984</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="11">
+        <v>784964</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5.9740000000000002</v>
+      </c>
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
-        <v>5.9839999999999997E-2</v>
-      </c>
-      <c r="E28" s="4">
+        <v>5.9740000000000001E-2</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>0.12354999999999999</v>
-      </c>
-      <c r="F28" s="3">
+        <v>0.12956000000000001</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
-        <v>3247410</v>
+        <v>7.2850000000000012E-2</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="7"/>
+        <v>2756976</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" si="3"/>
-        <v>0.22114206716735479</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="4"/>
-        <v>3.7752067167354797E-2</v>
+        <v>2756976</v>
+      </c>
+      <c r="I28" s="5">
+        <f>G28/$G$29</f>
+        <v>5.9081054662366191E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <f>H28/$H$29</f>
+        <v>5.9081054662366191E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="5"/>
+        <v>5.4870341028802339E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="6"/>
+        <v>2.1744053200070571E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10">
-        <v>12165222</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="11">
+        <v>13140095</v>
+      </c>
+      <c r="C29" s="10">
         <v>100</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3">
-        <f t="shared" si="2"/>
-        <v>14684723</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(G11:G28)</f>
+        <v>46664299</v>
+      </c>
+      <c r="H29" s="4">
+        <f>SUM(H11:H28)</f>
+        <v>46664299</v>
+      </c>
+      <c r="I29" s="5">
+        <f>G29/$G$29</f>
         <v>1</v>
       </c>
-      <c r="H29" s="6"/>
+      <c r="J29" s="5">
+        <f>H29/$H$29</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="10">
-        <v>1730865</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="11">
+        <v>1934449</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="10">
-        <v>745787</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="11">
+        <v>816653</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="10">
-        <v>14641874</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="11">
+        <v>15891197</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>86488</v>
       </c>
-      <c r="B36" s="10">
-        <v>71649</v>
-      </c>
-      <c r="C36" s="10">
-        <v>2867</v>
+      <c r="B36" s="11">
+        <v>78276</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3214</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>71649</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>78276</v>
+      </c>
+      <c r="B41" s="10">
         <v>0</v>
       </c>
-      <c r="C41" s="1">
-        <v>14588</v>
+      <c r="C41" s="11">
+        <v>8051</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D45" t="s">
@@ -4739,31 +9504,31 @@
       <c r="E45" t="s">
         <v>39</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>40</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>41</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>42</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>43</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>270</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1741</v>
-      </c>
-      <c r="C46">
-        <v>71</v>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>291</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1955</v>
+      </c>
+      <c r="C46" s="10">
+        <v>83</v>
       </c>
       <c r="D46">
         <v>112</v>
@@ -4771,52 +9536,80 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>3</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>151</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>0</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="10">
         <v>0</v>
       </c>
+      <c r="C51" s="10"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>14839</v>
-      </c>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>8212</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
